--- a/Temp/ExportedData.xlsx
+++ b/Temp/ExportedData.xlsx
@@ -666,696 +666,696 @@
     </row>
   </sheetData>
   <dataValidations count="198">
-    <dataValidation type="list" sqref="A2" xr:uid="{8EC9CF65-F7B8-4CEF-964F-987CEB216BCE}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B2" xr:uid="{F83B8F93-E56A-4E6E-BA4B-B5B96C2BACEA}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A3" xr:uid="{7DA6E4A8-A969-4065-B08E-7359E406E114}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B3" xr:uid="{3AE82F33-BA2D-477A-8089-F70BF49177C5}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A4" xr:uid="{1848CA4E-3E9F-461B-99A3-0620D43C7D0D}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B4" xr:uid="{74345FBB-B286-4AA4-AEFB-EA56E936ED02}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A5" xr:uid="{938A18D5-65AD-49EA-8485-C99B048E03E5}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B5" xr:uid="{2F91BF85-5845-4D83-B7E5-CD7288DC965D}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A6" xr:uid="{C09E1C14-5BEB-4CCE-B2DB-1BCC0A879355}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B6" xr:uid="{E4BE95C5-2535-48CE-9C6B-B4E64A1FC934}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A7" xr:uid="{B7358D21-9D36-41B9-9AB6-1DF814FF8216}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B7" xr:uid="{0BE49ADD-607C-4792-8ACD-28B481D8A0F4}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A8" xr:uid="{03128F50-A30F-44BA-98EB-B2718B69C032}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B8" xr:uid="{2952D86A-6B1A-478B-80A5-1F17DD95A0BB}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A9" xr:uid="{28084995-3C4E-40DE-ABC8-C9416233C53E}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B9" xr:uid="{7826404B-356F-44C6-BFCC-E2B05C441BD8}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A10" xr:uid="{CDEB933C-2E21-40F9-9DD2-13B4BE3D1053}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B10" xr:uid="{387183DF-B9E6-400B-AEB3-DB2EB23442C6}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A11" xr:uid="{76993E4C-3F04-4C49-A441-EEBFD7A9FD87}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B11" xr:uid="{A1DD5A62-61BE-407E-A071-3ADCE7907CB0}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A12" xr:uid="{38403708-0905-42C2-A224-5152FAA46689}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B12" xr:uid="{E2759A7C-0032-4413-A2D7-EC2165891D5E}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A13" xr:uid="{11CAC642-9A71-4854-AE5A-69FCF429AC28}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B13" xr:uid="{B175C019-6096-4D56-A96A-2C197B6D300D}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A14" xr:uid="{6EEBF60E-4DA0-4D3D-8E75-4FB4E02F6445}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B14" xr:uid="{DE756876-126E-4D76-84DE-F726B9C3D106}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A15" xr:uid="{C471C060-5A65-4F99-A719-9B3BAF928D53}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B15" xr:uid="{A01AF959-D114-406D-9181-DC58903EB2BE}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A16" xr:uid="{323B10DD-24AB-41ED-A8FD-9F6C6359F4B6}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B16" xr:uid="{93263894-E146-4C72-A8EF-271492502152}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A17" xr:uid="{AD763FB4-2DFC-4534-86E4-4D1DCD49F5A5}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B17" xr:uid="{D9158712-9170-4AE3-95BE-AA3948D5E5C0}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A18" xr:uid="{903AE436-33B3-4B47-957A-0BCA5406A8A3}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B18" xr:uid="{95562F25-20A0-41C3-9F86-9BC10797DBCB}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A19" xr:uid="{DF1586CB-89A6-49FC-B181-0ED9680BF003}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B19" xr:uid="{B04FCA61-BEBE-4E99-99BC-BE072F105AF3}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A20" xr:uid="{55191201-F6E7-4092-9B72-8522D4948AA4}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B20" xr:uid="{84320E53-68D9-416F-B870-A359B13529A5}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A21" xr:uid="{22322C28-B85D-48E3-86FB-8D73E2A64D40}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B21" xr:uid="{43074B1F-6709-4C1D-BD8F-5562247C869B}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A22" xr:uid="{93D4FDBE-EA6D-4650-BA34-8DA90B763A9C}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B22" xr:uid="{39FE5C6F-542A-4585-BA2C-E1915AB1B7E2}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A23" xr:uid="{BB522711-8F0C-406F-AF4A-1040EEBD7109}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B23" xr:uid="{138B1DE8-26A8-4A39-A1F2-1565C26EEE07}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A24" xr:uid="{104756B9-CD0C-405E-B49D-0F5F64204524}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B24" xr:uid="{B5C85F91-0894-4139-8BFD-6A64EC784982}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A25" xr:uid="{8BE095DA-D674-46F0-9188-7B694B3B17C3}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B25" xr:uid="{3F7BF9ED-0FD7-4428-BA35-18945FEBA803}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A26" xr:uid="{9BBA4174-3784-423F-B36A-39AB80EC6780}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B26" xr:uid="{60C5F108-4970-43EE-9330-6E1D573622AA}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A27" xr:uid="{3B0C6B59-9045-4A0E-8944-0663D2419D84}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B27" xr:uid="{297B8D0F-96F1-4ED1-9B2F-3E4F4B181910}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A28" xr:uid="{BEE90A7F-4677-4B38-B1ED-CE94A213D98E}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B28" xr:uid="{7FAEFEAC-8522-4601-A0D3-7A1D0A20D199}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A29" xr:uid="{399930EC-38C8-4369-B0BE-FE1C8E95F70C}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B29" xr:uid="{038A3944-BFBF-4655-8570-FA70BFAF2AEB}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A30" xr:uid="{E9CD7BC3-1E60-48AC-B6B6-0A5C0EA40B17}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B30" xr:uid="{C193B078-99CF-43B0-9FE0-08F1BD845693}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A31" xr:uid="{B7A2794B-FBC0-41C1-9405-67D76594AC36}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B31" xr:uid="{CE266A53-B7F2-4174-9D0D-98ED6B2BD0C6}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A32" xr:uid="{AC0C7578-406E-4243-8AA5-49223DC00ECB}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B32" xr:uid="{EF44AA8E-5639-4F46-A7CA-CDD382E14B04}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A33" xr:uid="{80B11A7C-F5C7-4460-A399-973449E33BC0}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B33" xr:uid="{5ABAEE44-0D9E-4AB2-8A2D-263F463DAD8C}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A34" xr:uid="{71F5998D-2F67-4D46-81D0-3EF04BDAABD8}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B34" xr:uid="{CC6467D9-3AC1-4E62-AFFE-4BA4DC0D52B7}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A35" xr:uid="{5F84951C-1146-46B3-9DCC-1753EEA2040E}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B35" xr:uid="{2B5F00C0-291B-4D34-9989-89D84D26703E}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A36" xr:uid="{4E6796BC-986C-427C-88A8-851B0B22B7EE}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B36" xr:uid="{915733FE-8236-49A2-A506-9E7E30E133D5}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A37" xr:uid="{081CF8A6-B6D9-4CD2-A96E-BF8F9943D1A2}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B37" xr:uid="{E9CE4FBC-AE17-47B3-8954-20F1A9D8C50F}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A38" xr:uid="{503F10C7-672B-4E13-825F-43B50C818578}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B38" xr:uid="{2B8D5FEC-B625-49C3-8656-CB1365504D6E}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A39" xr:uid="{458BAD9A-FD2B-4CB5-9027-7ED85C2B01E5}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B39" xr:uid="{C417DF5F-AEE3-43C9-8C65-6533AED0C39A}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A40" xr:uid="{1F79470B-E305-4C16-B413-487A133D3076}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B40" xr:uid="{3C5065B3-78D2-45BC-95AF-F8F15BEA92FD}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A41" xr:uid="{28C5DEEC-AF58-4DD1-A050-2600E2727C46}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B41" xr:uid="{E3D6871E-ECE1-4C2E-8B23-CE1B0136124E}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A42" xr:uid="{B9716B33-B061-445A-87E1-BD6D846630BB}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B42" xr:uid="{C2075940-4F1B-47A6-8BA6-CB2AA88A8D0B}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A43" xr:uid="{8BB65C26-7928-4955-B986-C02EABE8ED4A}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B43" xr:uid="{1737EC4C-7067-41DE-ADAD-C593F7F60ED5}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A44" xr:uid="{AA264F13-4A52-40E5-B40F-A9A3DB4B1881}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B44" xr:uid="{B94A1853-4632-4713-9A56-8D478F5E7EED}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A45" xr:uid="{8F480A62-8368-457B-AEE6-D8D704E57FB7}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B45" xr:uid="{54C1E7BF-67B2-4CBE-917B-03D688CD7AE5}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A46" xr:uid="{5D444CE8-D283-4C2C-8EA7-891C2D28C15B}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B46" xr:uid="{5C4EA9C4-063A-46F1-BD65-CDB824323F0C}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A47" xr:uid="{F477E88C-0186-4161-AD8B-3DD22C35D1D0}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B47" xr:uid="{37CA65E0-1AD2-4512-B9D9-D3AF056C8CDE}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A48" xr:uid="{A44B38B0-6737-4139-A770-BAED68C655BD}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B48" xr:uid="{170FC701-7C58-4DAD-9D9B-DFCA54C54505}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A49" xr:uid="{CED514ED-D5F2-4DAF-823B-0A5EF71CC92A}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B49" xr:uid="{75DE473F-3CD2-4641-9882-413A3E3DBFFF}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A50" xr:uid="{204BB39F-6C5F-4133-B2FF-BC3C3366B173}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B50" xr:uid="{0E8D7929-64DF-4512-94F0-88EABA075947}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A51" xr:uid="{1C69BE60-E57D-4C5A-B49C-74BC70CFBBB5}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B51" xr:uid="{FDF65A3B-D45F-4969-940D-C73F77237037}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A52" xr:uid="{6926856E-0EDC-4D08-A748-597F0DE33CFF}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B52" xr:uid="{17CF2A75-6CD4-4D0A-B38B-6350F6E3A89F}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A53" xr:uid="{AE735A33-63E7-4E00-BAE5-F8760B6F4F5C}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B53" xr:uid="{211BCD53-8FE8-44ED-82B5-ED6C136F3E6D}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A54" xr:uid="{2A09BD9C-BF76-4AEA-BBB8-2EC4EF7F4D45}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B54" xr:uid="{3B9FB273-D72B-4801-A259-45C073838182}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A55" xr:uid="{89EAAAEF-496F-451A-AB3F-3BC1F3C26489}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B55" xr:uid="{9A15E02A-ECB8-43F2-8BAE-B754088F1B64}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A56" xr:uid="{9B1FF3D6-AC5D-4068-BB53-CF26E9BFFBA2}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B56" xr:uid="{D3921F40-3093-48A8-A1FD-6D06ECF01496}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A57" xr:uid="{D374CD21-E7B9-4733-8642-670A030DBA38}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B57" xr:uid="{E131BD73-474E-44E7-8A84-5A2AD6C8542E}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A58" xr:uid="{02189F36-2563-4001-942A-57FEEF28B6A1}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B58" xr:uid="{085BBE2C-75C4-4571-9FE8-484E067805DE}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A59" xr:uid="{A7E917DE-D5AE-4086-9F8B-F72B0CFA2499}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B59" xr:uid="{08FF53AF-D37B-42D3-99AB-D9382B50234B}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A60" xr:uid="{924A70EE-2836-455A-8C66-A9787F03AD0A}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B60" xr:uid="{771C7CF8-4722-44D9-89C7-79A4C29CBF44}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A61" xr:uid="{54BFBD09-737A-497E-BD1D-445E7DBB7373}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B61" xr:uid="{7E060092-6776-48EE-B80D-67B62BE96E31}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A62" xr:uid="{B42A9F47-E0D9-43C4-A044-FD43419C5418}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B62" xr:uid="{520AB8BC-E41F-435D-9BFD-BADF0C55CB90}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A63" xr:uid="{125CA024-ED3B-46CC-8DDA-F178CA902188}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B63" xr:uid="{39EA8007-0AAC-4AF2-9FBF-17C7F48C43F8}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A64" xr:uid="{8D2F6EC5-ADF8-46F6-AE40-14A315F8C400}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B64" xr:uid="{AED1FC83-0F1D-40DB-8D95-AFBB414963F4}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A65" xr:uid="{5FAE708E-ECE8-4BC3-A80C-9255003E6697}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B65" xr:uid="{FABAE13E-D2AB-4A02-B15C-2AE84FB95BAF}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A66" xr:uid="{EC6160F7-E8C4-4B16-8D9A-9BFD3EB4A786}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B66" xr:uid="{B06A22EE-32FD-4420-9C68-092D4EC38192}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A67" xr:uid="{008C47B6-AAD2-4DFC-AC5B-3AEA2DB10C1C}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B67" xr:uid="{2585027B-49BE-46C7-982D-27FBF5BB1270}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A68" xr:uid="{1B9F038B-E8B0-409A-96D4-C0F4B6FFC6DB}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B68" xr:uid="{B968C153-42C5-4363-A74D-31F9A79E8FA7}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A69" xr:uid="{3F714C6C-1397-43CE-8F7F-B6FE6739BC13}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B69" xr:uid="{8C47AD22-CE20-4DBD-9A65-674CA72EDC66}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A70" xr:uid="{B4EB249D-F83D-4372-A56D-5168FCDCEC49}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B70" xr:uid="{0B08CA5D-256B-4EB3-A414-A45F941C19FA}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A71" xr:uid="{836637D4-34B4-4476-9243-354B9183792B}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B71" xr:uid="{E9B51998-4277-440D-B685-044E6D29740F}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A72" xr:uid="{555CE84F-54CC-450E-9101-6FF61A35933F}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B72" xr:uid="{A59721D3-2708-4610-A69B-1ED0A7530A49}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A73" xr:uid="{ECEF9CF7-F471-44DC-9292-A6EDC7B8C54E}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B73" xr:uid="{075E0BD1-02FA-43AD-B899-ED44B1ED4462}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A74" xr:uid="{DFCCEBA8-E148-4782-AE9B-B9C699EB09C5}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B74" xr:uid="{DB3F3F16-A5BE-4739-A3EC-1585199EB93B}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A75" xr:uid="{EFA6011D-F965-48B7-B75A-87AC30302DED}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B75" xr:uid="{4A2B61AD-316F-4A99-8B3F-50955A91D6E1}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A76" xr:uid="{1BA2A03C-A7CA-4378-A6E9-E37A76B1AA78}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B76" xr:uid="{B697104D-0D84-4665-B047-F49F5CFF8837}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A77" xr:uid="{DC05BAAB-FA54-4622-A567-5812D6F302CC}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B77" xr:uid="{557B209E-6738-487B-AAC1-4D101F41FBD6}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A78" xr:uid="{54EC87D8-2D09-45F2-9D19-E83D8A5552D7}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B78" xr:uid="{6BD2568D-5194-4BCC-9576-BC2ADA8AC021}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A79" xr:uid="{8A46D0E1-20A8-4C95-A8FF-44FA1B4103EA}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B79" xr:uid="{0E269BEF-658F-4E50-8437-944EB00FF15C}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A80" xr:uid="{C1CB8296-FAAB-494D-8572-4C0ACE989489}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B80" xr:uid="{C6888104-EA2B-4B81-BA91-398ED5C64509}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A81" xr:uid="{7B6DBE14-45A3-4EDA-AADE-8232CD5D022B}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B81" xr:uid="{41E37E6E-7FF1-45E9-A79A-4900E16D13CF}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A82" xr:uid="{ABC6B161-9F9D-44B4-A9BA-32E16ADD0741}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B82" xr:uid="{ECADCB8E-653C-4346-A7F4-015917063FE5}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A83" xr:uid="{A5B60D8D-8513-4D9A-985F-A7433C05F22F}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B83" xr:uid="{D1319F4B-C532-4731-9E6E-45625621697A}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A84" xr:uid="{20B76866-EF7F-44AD-BBCE-6C95039B3774}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B84" xr:uid="{4C291167-6D5A-4373-82B7-1A290780C831}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A85" xr:uid="{D775DFAB-A7C7-4381-A79C-A335B74DAD78}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B85" xr:uid="{94125DF7-EBEE-47AF-BE41-5777F2307481}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A86" xr:uid="{84A638C6-2612-4F24-AE9D-2269E76FAE9E}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B86" xr:uid="{46584FCE-5DE7-4A98-A959-6E3401CD7DF4}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A87" xr:uid="{7779C610-7E00-41A6-AD03-9C6CDC92BC0D}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B87" xr:uid="{962245BF-9F5C-495E-8996-D9C553976CF7}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A88" xr:uid="{509F9FA5-94E6-4357-BCAD-F3B05B2A5A3B}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B88" xr:uid="{8688ABD1-302C-45E9-A2A3-633CC6866FD4}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A89" xr:uid="{E94AD717-3FD2-4043-8507-A7476678E05D}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B89" xr:uid="{B34AD7B1-F9AD-4F34-8681-5B6AEAFF30F3}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A90" xr:uid="{B1EA0FF0-945C-438B-BF0B-6A49CECEE948}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B90" xr:uid="{A8481ABB-4B0B-4398-B26F-6A8CB52B63E5}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A91" xr:uid="{409B4A3A-D040-4CA2-96BD-58267F295B30}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B91" xr:uid="{C86BA925-B627-442E-9798-BD03FF5F2892}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A92" xr:uid="{8BCC1192-B160-4CF5-9B57-877E5735C892}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B92" xr:uid="{70785866-AA4B-4CB3-AA63-52346DCF5A2F}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A93" xr:uid="{34D7496B-E269-4C67-B24B-6445716DEAF3}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B93" xr:uid="{3E4B00A3-EDD8-48C1-B36F-0FB12BC6DB9E}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A94" xr:uid="{FD7918B3-3320-4721-8F1E-B5AE6C1B6348}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B94" xr:uid="{AF840D36-3BFE-44FC-9555-39FEBC0839EC}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A95" xr:uid="{48086251-D489-46B5-985A-F38585EC0715}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B95" xr:uid="{F32A4103-84FF-4FEE-935E-B48E7A1EC1C7}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A96" xr:uid="{734960B9-582A-4A9D-AD25-4383D66CC181}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B96" xr:uid="{34F47408-C0FA-415E-9107-66908D635952}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A97" xr:uid="{5620EA49-CB20-4397-9E2C-96214E59D739}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B97" xr:uid="{D350B31F-B4AD-4151-9789-E3E12C1F4E72}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A98" xr:uid="{FC028DB0-481A-4222-831C-F6D238DF1776}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B98" xr:uid="{B7983BB3-4B31-494D-AA8E-5B8E1CB93FD0}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A99" xr:uid="{846F3900-1217-4F9B-8C51-47E6606ADFEA}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B99" xr:uid="{CA7D5EE6-DF43-47EF-B122-446E163EAFA0}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A100" xr:uid="{D90C7DCE-646D-4961-873F-51E8649ADDD7}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B100" xr:uid="{E73D660D-4BFD-4739-AC19-D2509D84B899}">
+    <dataValidation type="list" sqref="A2" xr:uid="{1C113A17-7846-4A94-A243-DAD204F25EBC}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B2" xr:uid="{FBE2162D-14CF-4A35-A819-D8263AC6D0B3}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A3" xr:uid="{078C28A7-FCD7-41DC-B7DD-DEDAABFCC1A6}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B3" xr:uid="{5168CE6F-775F-4345-BD8A-FA0D080B236E}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A4" xr:uid="{9A64FF21-DDC4-4B45-A725-C11423C105F6}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B4" xr:uid="{BD60021C-FE92-4B9F-BB30-346BF3901F61}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A5" xr:uid="{BF61B335-1BF1-4332-AF52-916814545F4A}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B5" xr:uid="{2791C35C-2E62-476E-A282-DFE48133B255}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A6" xr:uid="{89C77411-990B-4993-8B1F-1EB59DF28FC4}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B6" xr:uid="{E13C2B1C-C5CA-4CC4-8B07-FCE76A8F71EE}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A7" xr:uid="{76CDD901-681A-4250-AB40-EA0E80DB3BC3}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B7" xr:uid="{D5304B55-FABB-4DC3-984D-E41214003FC0}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A8" xr:uid="{2D58BCD5-3531-4193-BD0A-379E528D6879}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B8" xr:uid="{CE9A8919-0C27-49BF-AAB9-603170EEAFE7}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A9" xr:uid="{ACB6A4F6-D416-4101-B24B-2FA301ED1807}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B9" xr:uid="{C73D0C6D-62A5-46DF-83BC-226850959118}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A10" xr:uid="{81126BDD-8C99-479C-8327-5E59C8D28164}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B10" xr:uid="{1031BD06-BFFF-46C8-9250-A2A0A8B6EBB8}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A11" xr:uid="{CF78D77C-C9E7-4201-807B-BE0D350E8823}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B11" xr:uid="{3C76F126-137A-4606-9D29-65E4996B3A25}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A12" xr:uid="{5EF20C95-E52D-4AD0-8B0F-B7B570913705}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B12" xr:uid="{AA3C2568-8CC6-45F2-BA1E-0109AEBE7820}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A13" xr:uid="{82B995CB-DF61-4B57-93EB-BF9CE43988B6}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B13" xr:uid="{7B6B6935-6CB3-4041-A46E-2581DDF6F4FF}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A14" xr:uid="{005D19BF-870D-45D8-8FA5-A1667FE6CE01}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B14" xr:uid="{F7AA9C8B-D4A9-4D5C-9ADE-957D9835A45C}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A15" xr:uid="{2525B137-3C31-47F9-8B72-B31AF0675F33}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B15" xr:uid="{818FFD35-5674-4DB8-9E83-2737274C8EC4}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A16" xr:uid="{BADB6A9C-9BC8-4CD9-98AE-196494FD74D1}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B16" xr:uid="{5036014B-6326-44DB-A73E-A0D21606FDCF}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A17" xr:uid="{FB98751B-0EB8-4F8E-A74A-DFD689A9EE95}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B17" xr:uid="{6DE1D3A4-24DC-4400-9D36-95B65E271564}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A18" xr:uid="{2AFD1823-6EB7-4B98-BF93-851BCEB08DB2}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B18" xr:uid="{34A64068-4222-4B00-A6D7-6F58C8196C94}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A19" xr:uid="{89E529A7-A3CE-41C1-9229-4796CEF6C523}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B19" xr:uid="{B06EDED9-717A-46EB-8A1F-B06D5B61C431}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A20" xr:uid="{1D92F6C5-EE02-44C2-83C5-1B26CB3923C9}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B20" xr:uid="{4124A055-0EAF-45C8-A289-D04002B94FCB}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A21" xr:uid="{6472D914-90F4-42FA-8BC4-5ADCE0B2DE8C}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B21" xr:uid="{CA35E4CB-4F23-4984-B3A2-276AD8EDF0C6}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A22" xr:uid="{A1F3DCFC-6413-446C-9F87-A55195F62129}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B22" xr:uid="{6D835514-F14B-4546-8B20-0451A8C0C4E5}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A23" xr:uid="{7E3C5B63-0BC5-433E-9573-5E8554AA7480}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B23" xr:uid="{6D574923-9039-4717-BBF2-FF3717BC1216}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A24" xr:uid="{2BD45914-E13A-4A89-8D3C-9BEFA968CEF8}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B24" xr:uid="{FE97C7BD-DC14-4C28-9E74-DAA183F58134}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A25" xr:uid="{022BECB1-5D0C-4E9A-9EB6-0CD0E7185C7C}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B25" xr:uid="{0CC94367-6EE0-4342-AEB8-D0C80B845E8B}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A26" xr:uid="{1EF6F842-3D97-45E5-93D1-0DEBBC6067B6}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B26" xr:uid="{2BBC29BD-E58C-480B-BF8C-5E0967F04BD7}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A27" xr:uid="{79CC1B08-4FA1-4FBF-9672-A3AF83FDD148}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B27" xr:uid="{BA23309D-1B9E-409F-A3C8-08AEF115E757}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A28" xr:uid="{021E0D56-6828-412A-81BD-87093A61DE20}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B28" xr:uid="{D87AF705-45F0-4CBE-BC41-C4AB30D480AB}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A29" xr:uid="{0E08E725-5791-439C-950D-4A0C00EC3DB5}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B29" xr:uid="{E644AAD4-68AC-4CB4-80C3-505558610E9C}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A30" xr:uid="{E815FC07-EC7D-46D9-9855-55A507F3EC47}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B30" xr:uid="{00B8FA07-6171-4EC7-B952-D0745C5BCC08}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A31" xr:uid="{DA464B7A-660A-414A-BD98-B638AAE469E1}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B31" xr:uid="{0521FF10-5BA0-427B-BD14-C8F6F272B9AB}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A32" xr:uid="{391CB421-848D-46FD-93B6-0CBFBCB57095}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B32" xr:uid="{DEF7F3C7-89F3-446F-9528-092097AF7ECF}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A33" xr:uid="{0E240DD1-0211-4BEB-A92B-5A9FA433FC76}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B33" xr:uid="{178DC0D8-5317-41BC-9344-5DD8631E081F}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A34" xr:uid="{51D6AD12-8E74-4E0A-B1E7-DA56843B8DF9}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B34" xr:uid="{2DA43927-9E3C-4159-A854-BAFB239AFFC3}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A35" xr:uid="{FBDB5788-2469-49B7-955C-08FBC5BF6779}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B35" xr:uid="{290DB37E-BF57-4349-A149-C9ED4B36BC31}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A36" xr:uid="{44865FC9-2D58-4840-9FBF-373C1BE8CD70}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B36" xr:uid="{CAF83DBC-930D-40E3-930B-E5C988879F7E}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A37" xr:uid="{0A57C9AB-046C-46D5-B6D1-E277E755FC35}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B37" xr:uid="{0EE7BD7C-F681-421E-B424-25105A331B77}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A38" xr:uid="{AE43CB14-0A94-4A0E-9F2D-2DEEE0AC160A}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B38" xr:uid="{3B1932B6-00E4-4A37-8CAB-807B34A41C36}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A39" xr:uid="{A3A3DA65-07C5-47DB-8075-AF0E5A160658}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B39" xr:uid="{5BA90167-8069-4583-A2C5-BB4C27F18E93}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A40" xr:uid="{E1D5F20D-7B9F-4B13-86B0-0920B5EF6851}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B40" xr:uid="{D49F0100-811B-42D4-8981-5F1994CB1D97}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A41" xr:uid="{46606B93-6889-4D4A-91D7-2ABCE86538EE}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B41" xr:uid="{E7832007-4D85-4615-804A-E43772A17D77}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A42" xr:uid="{64DCC4D8-C9A1-4FE4-A3F9-415AF8346555}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B42" xr:uid="{D7DD2CA1-623F-4A25-A459-2C0EF4F06491}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A43" xr:uid="{B658555A-A177-4BC4-8E84-2CD5AAA941E3}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B43" xr:uid="{F236E8FE-9470-406A-893A-540B12FBF038}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A44" xr:uid="{7A0D6C5D-2FC5-43A1-A1B1-4B5342C08F36}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B44" xr:uid="{A77B606B-21E3-4CD7-8452-824B677C6265}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A45" xr:uid="{D19F5BC9-E51B-4CD6-BE91-29BC6388BA76}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B45" xr:uid="{72FF70FE-1D96-4097-8FCD-7027896EDCAA}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A46" xr:uid="{FED6B623-EDA5-4A55-B7DB-02B342D56AC0}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B46" xr:uid="{C1ED29E5-E615-4D21-8988-DD3C2C3C9EAA}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A47" xr:uid="{E1773638-528F-46C4-8CAE-BB49FBD10A68}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B47" xr:uid="{EDE67E9E-B6FA-4DC2-A2C9-B2DC40A6BDFE}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A48" xr:uid="{7FEC562A-7AC8-448C-8F08-953C40C39029}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B48" xr:uid="{AF8418A6-FF61-405D-BA35-E5C45076E7E8}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A49" xr:uid="{9C3D04D1-A0B8-4D35-9526-7D2405666A69}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B49" xr:uid="{520BDA9D-BED5-4F91-8782-805BC65CEEA9}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A50" xr:uid="{C7241F7F-3F36-4C6C-A317-43157ACE2DE9}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B50" xr:uid="{CE58898A-AE68-4540-8C1E-673602E10883}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A51" xr:uid="{F79C1CCF-4D2B-464A-91B2-193E2876F1E3}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B51" xr:uid="{811E70FE-58E0-4B19-A502-C10FC7FA695E}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A52" xr:uid="{FB29C677-6DD6-4128-B334-520FA0BE74BC}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B52" xr:uid="{953638BF-7B6E-4A8A-8A20-6C3AC539C353}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A53" xr:uid="{6742D449-77B6-4034-994E-46A9F8AD5561}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B53" xr:uid="{F5BFA42E-1AD5-4A78-ADE6-63DD197FFCAF}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A54" xr:uid="{2EAA5AD2-049C-41A4-9E6E-3A553908C1B7}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B54" xr:uid="{3C246448-9F25-4611-9D2C-2DA76E652E4E}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A55" xr:uid="{D2198557-E69C-4598-850E-93861879E7CF}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B55" xr:uid="{704C957F-C50A-4550-B777-CAA790A1FD8B}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A56" xr:uid="{B0EDED69-E319-456C-8E3F-BA37534127A3}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B56" xr:uid="{9BE46E6A-6CC2-4B95-AC70-BCD564518918}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A57" xr:uid="{B9C7C5BD-516E-46E9-BA5E-D9400713009C}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B57" xr:uid="{FECCA9EE-0AA2-41ED-98BE-4B35B284D75F}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A58" xr:uid="{70B54FCA-DCFF-4458-8928-2AEB7B2DFCEE}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B58" xr:uid="{51096F7F-8B3B-4EE4-89BD-3B6CDCE00CC7}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A59" xr:uid="{44CF025E-F8AF-459C-B3B8-5A032EB7AD63}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B59" xr:uid="{18F5AA8A-82C7-4A14-A807-F2787140757C}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A60" xr:uid="{55637EB1-D6E1-425B-AAE4-6B2D4A506E28}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B60" xr:uid="{4797343E-3A20-4FCA-BF08-8F3C7A3730E9}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A61" xr:uid="{54AE74F3-56FE-4163-8929-6C0E952096B0}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B61" xr:uid="{DF500871-580A-4997-8357-55603A6DE6BD}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A62" xr:uid="{27A134B7-AD5F-4B5F-87DE-71B723FC3A90}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B62" xr:uid="{41DB8D86-A71C-4F81-8765-E1697AEAD059}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A63" xr:uid="{9AC73E5C-B2B6-4A01-A740-FB87ABEAA90E}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B63" xr:uid="{17F4512B-0ACC-4655-8E55-43A8D7A3EB9B}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A64" xr:uid="{8B19704C-CDBE-4315-B9EC-2A0FEEBFB432}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B64" xr:uid="{CE1CA2D4-983A-4F89-B3E2-6274227EAB44}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A65" xr:uid="{86FB5296-598F-4F8C-850E-2DF488A440E1}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B65" xr:uid="{E48C91EB-892F-4F4C-9586-0C8CD2E8B2C6}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A66" xr:uid="{C311BB4E-8A6D-48D8-A4E5-4F9B7A9EA4B8}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B66" xr:uid="{C942F049-C4EB-4606-9150-79EE140CAD08}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A67" xr:uid="{B84D304B-9E7F-421B-BC50-1CCEFA3662C9}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B67" xr:uid="{A76C7DFB-2267-42F6-959C-CD1AC7CB45ED}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A68" xr:uid="{05FEECE6-CB6E-461D-AD3E-AA9F1852379C}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B68" xr:uid="{4BED9599-915B-4BF7-A5E0-67BC6AE0CD33}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A69" xr:uid="{78DFF0AF-A395-4ACC-9060-776E9A0EDE16}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B69" xr:uid="{FAAD0EF0-CE61-4E52-9BE5-1B51356BB382}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A70" xr:uid="{5D6D6551-A02A-4A05-9F28-8962D7B7E767}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B70" xr:uid="{0ED38540-361B-4AB2-9E0A-460D9D5384FE}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A71" xr:uid="{E907090D-775A-425D-8F5D-721F14722B5E}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B71" xr:uid="{8F6EBDFF-8F18-45F7-BBB1-A1FDFB3B9021}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A72" xr:uid="{315E1632-3DAA-419B-972B-656F17C14E44}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B72" xr:uid="{4F2449DB-2A75-4B26-80B0-17309279AD04}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A73" xr:uid="{365C0EDE-9B17-46B9-A556-9881610ACF91}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B73" xr:uid="{7FC4B9F9-AA3B-414A-9471-FD7505B44D40}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A74" xr:uid="{9F97A7E3-9AA3-4307-BAC9-908E6C399E25}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B74" xr:uid="{41F2A8EA-96AD-4C9C-8ACC-8AC71CC70C1B}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A75" xr:uid="{C1AD919B-CE35-4D0F-863E-4BF94E4C999B}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B75" xr:uid="{0A65E0EF-7BB1-43AF-BD0A-8920982E91EE}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A76" xr:uid="{8FB3A3F5-4098-48B5-A109-BABA9E9EF551}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B76" xr:uid="{18BBA091-14B9-491E-803D-6C6D86314B50}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A77" xr:uid="{34A4AFD5-822C-494A-9E87-118DD3611BFC}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B77" xr:uid="{D7220B16-B7F4-42D0-B2B3-0F69EF2F3AC0}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A78" xr:uid="{0EF8203A-2E7B-495F-9021-E503C0B1FB44}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B78" xr:uid="{8D90684F-8040-44BD-92C0-CB2877D4B1D8}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A79" xr:uid="{2CE78276-01AC-46A8-896A-5625ABC6AAFF}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B79" xr:uid="{27257407-1F96-458A-8CDF-8963E65A3C7E}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A80" xr:uid="{2AD9E713-796F-4B89-B1E2-B0049252A0A5}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B80" xr:uid="{43DB3CC8-EDBE-4B0C-B0C1-55E9581FE311}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A81" xr:uid="{E5D9AD2B-2A3F-429C-BDCC-5B7308D51372}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B81" xr:uid="{B6651E20-B168-4229-A8F7-3889701780DF}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A82" xr:uid="{98AB3873-4B2C-4B70-851C-BF77739FDD16}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B82" xr:uid="{45370882-8D1D-40A9-BC1E-74ECA9155807}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A83" xr:uid="{5A48AA42-E4B3-4731-A737-C52C1FF1B53D}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B83" xr:uid="{1A9E97AB-50E9-4974-A9E0-2C79E7F68639}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A84" xr:uid="{BBDF7594-4C46-473B-BF54-8EF2CA9D795F}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B84" xr:uid="{AC00FD89-ABAA-4B2B-B63D-4AF698355B3B}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A85" xr:uid="{10E55BA7-8B78-4A98-9FA4-D6EBF6AF57C5}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B85" xr:uid="{FB092D8D-A163-44CF-907B-0F877A313820}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A86" xr:uid="{E41A9F70-372A-4F27-A944-6CD584319189}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B86" xr:uid="{CAC604FF-31FE-4347-9840-5DBF3171821F}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A87" xr:uid="{39F0ADCF-3F40-45C9-9F29-EEC7230643D0}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B87" xr:uid="{543E0483-DB5C-4249-A33B-DDCB708EEEA4}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A88" xr:uid="{07F830AB-D4C8-4AAE-A6EB-A68595F8EA2C}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B88" xr:uid="{CF888C36-80A9-47DB-B434-81D2605CAC72}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A89" xr:uid="{343A550D-C617-4B69-908A-719399252020}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B89" xr:uid="{E955E72E-EA2F-4916-AEF7-F79961F13F3E}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A90" xr:uid="{9B8575F0-CAA2-411E-8C6F-9955723AB6AE}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B90" xr:uid="{4294D9A4-6B6A-49F3-831E-109AAA86119B}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A91" xr:uid="{B96705F2-8A64-4872-8FB3-7792DD39B588}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B91" xr:uid="{7FDFC31C-2B58-44DD-8343-F299D5198491}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A92" xr:uid="{84ED90AB-54E0-43B9-8C4E-379144BDE9DE}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B92" xr:uid="{57417E02-9B0C-4D28-A7EA-AC7365B2C83F}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A93" xr:uid="{B5282DD0-4D46-4536-987D-FB092A28C817}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B93" xr:uid="{B4394CFC-8085-478B-B2F0-30A2CD492029}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A94" xr:uid="{B7D67CF7-8AA1-4B8A-B142-29B6A8FA2375}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B94" xr:uid="{C26995BD-147F-4F81-A48D-07CEF8986684}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A95" xr:uid="{E857D69E-4A5A-4316-98C4-F7E6160F0198}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B95" xr:uid="{BBAD1421-29B3-45B3-853E-E7532C6A4902}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A96" xr:uid="{862C67F6-E43B-43AB-9312-B638A4EB4861}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B96" xr:uid="{5F3C34BC-C946-4B3E-96A0-EB37CF210D24}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A97" xr:uid="{A717785B-378C-4BF3-9745-66515A7E6042}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B97" xr:uid="{112A59E1-E93B-45AB-80D8-657E0B78AF16}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A98" xr:uid="{19F3B912-870D-48FC-9F9A-8226C2B754B8}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B98" xr:uid="{7D181ECF-815C-4B46-9C7A-6AE90D503CCD}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A99" xr:uid="{45D449B0-FE14-4D29-ACD3-CEE0A5AD5A44}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B99" xr:uid="{B66AD617-950E-4695-8433-9E36B4397B3F}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A100" xr:uid="{9EC2D886-3331-4880-B768-4A63F3923700}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B100" xr:uid="{08BB8EBF-CDF6-4D95-8C46-ABFEE3859637}">
       <formula1>0</formula1>
       <formula2>999999</formula2>
     </dataValidation>

--- a/Temp/ExportedData.xlsx
+++ b/Temp/ExportedData.xlsx
@@ -9,14 +9,14 @@
     <sheet name="Hidden" sheetId="2" r:id="rId2" state="veryHidden"/>
   </sheets>
   <definedNames>
-    <definedName name="CostCenterList">Hidden!$A$1:$A$79</definedName>
+    <definedName name="CostCenterList">Hidden!$A$1:$A$139</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1" fullPrecision="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>COST CENTER</t>
   </si>
@@ -27,10 +27,13 @@
     <t>REMARKS</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>100000000 - TEST</t>
+  </si>
+  <si>
     <t>1000000000 - ANFLOCOR CORPORATE</t>
-  </si>
-  <si>
-    <t>1000000001 - ACCOUNTING</t>
   </si>
   <si>
     <t>1000000002 - GENERAL ADMIN SERVICES</t>
@@ -106,6 +109,9 @@
     <t>2000000000 - TADECO CORPORATE</t>
   </si>
   <si>
+    <t xml:space="preserve">2000100000  - AGRICULTURE DIVISION ADMIN</t>
+  </si>
+  <si>
     <t xml:space="preserve">2000101000 - DISTRICT 1 ADMIN
 </t>
   </si>
@@ -130,12 +136,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2000190000 - AGRI ENGINEERING
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000193100 - OTHER CROPS
-</t>
+    <t>2000190000 - AGRI ENGINEERING</t>
+  </si>
+  <si>
+    <t>2000191000 - QUALITY ASSURANCE DEPARTMENT ADMIN</t>
+  </si>
+  <si>
+    <t>2000193100 - OTHER CROPS</t>
   </si>
   <si>
     <t xml:space="preserve">2000193200 - ORCHARD
@@ -146,6 +153,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2000200000  - RIC DIVISION ADMIN</t>
+  </si>
+  <si>
     <t xml:space="preserve">2000201000 - QMSS
 </t>
   </si>
@@ -170,6 +180,9 @@
 </t>
   </si>
   <si>
+    <t>2000207000 - PLANT PATHOLOGY DEPARTMENT</t>
+  </si>
+  <si>
     <t xml:space="preserve">2000208000 - TDDSL &amp; POST HARVEST
 </t>
   </si>
@@ -178,12 +191,20 @@
 </t>
   </si>
   <si>
+    <t>2000301000 - HR ADMIN</t>
+  </si>
+  <si>
+    <t>2000302000 - HR COMDEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000303000  - STUDIES GROUP DEPARTMENT</t>
+  </si>
+  <si>
     <t xml:space="preserve">2000303000 - STUDIES GROUP
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2000304000 - LAND ACQUISITION
-</t>
+    <t>2000304000 - LAND ACQUISITION</t>
   </si>
   <si>
     <t xml:space="preserve">2000305000 - SECURITY FORCE
@@ -198,17 +219,158 @@
 </t>
   </si>
   <si>
+    <t>2000400000 - FINANCE DIVISION</t>
+  </si>
+  <si>
     <t>2000400700 IO 40701</t>
+  </si>
+  <si>
+    <t>2000401000 - BUSINESS SERVICES &amp; CONTROLERSHIP</t>
+  </si>
+  <si>
+    <t>2000402000 - EXPORT DOCUMENTATION SECTION</t>
+  </si>
+  <si>
+    <t>2000403000 - MATERIALS AND SUPPLIES DEPARTMENT</t>
+  </si>
+  <si>
+    <t>2000404000 - SYSTEMS AND INTERNAL AUDIT</t>
+  </si>
+  <si>
+    <t>2000405000 - MIS-IT</t>
+  </si>
+  <si>
+    <t>2000407000 - OTHER CENTRALIZED</t>
+  </si>
+  <si>
+    <t>2000408000 - TAX</t>
+  </si>
+  <si>
+    <t>2000409000 - SHARED SERVICE CENTER</t>
+  </si>
+  <si>
+    <t>2000601002</t>
+  </si>
+  <si>
+    <t>2000602002</t>
+  </si>
+  <si>
+    <t>2000603100</t>
+  </si>
+  <si>
+    <t>2000608002</t>
+  </si>
+  <si>
+    <t>2000608003</t>
+  </si>
+  <si>
+    <t>2000608004</t>
+  </si>
+  <si>
+    <t>2000609001</t>
+  </si>
+  <si>
+    <t>2000609002</t>
+  </si>
+  <si>
+    <t>2000609004</t>
+  </si>
+  <si>
+    <t>2000609005</t>
+  </si>
+  <si>
+    <t>2000609006</t>
   </si>
   <si>
     <t xml:space="preserve">2009916000 - BANANA MILL
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2009917000  - HOSPITAL AND PHARMACY</t>
+  </si>
+  <si>
     <t xml:space="preserve">2009918000 - TLTC
 </t>
   </si>
   <si>
+    <t>2100000000-ABC CORPORATE</t>
+  </si>
+  <si>
+    <t>2100101000-PANTUKAN AGRICULTURE</t>
+  </si>
+  <si>
+    <t>2100103004 - PANTUKAN ENGINEERING</t>
+  </si>
+  <si>
+    <t>2100201000-DONMAR AGRICULTURE</t>
+  </si>
+  <si>
+    <t>2100203004 - DONMAR ENGINEERING</t>
+  </si>
+  <si>
+    <t>2100301000-LUPON AGRICULTURE</t>
+  </si>
+  <si>
+    <t>2100303004 - LUPON ENGINEERING</t>
+  </si>
+  <si>
+    <t>2100401000-CATEEL AGRICULTURE</t>
+  </si>
+  <si>
+    <t>2100403004 - CATEEL ENGINEERING</t>
+  </si>
+  <si>
+    <t>2200010000-SPRAY SERVICES</t>
+  </si>
+  <si>
+    <t>2200020000-CHARTER SERVICES</t>
+  </si>
+  <si>
+    <t>2200030000-MAINTENANCE OPERATIONS</t>
+  </si>
+  <si>
+    <t>2200090000-ADMIN DEPARTMENT</t>
+  </si>
+  <si>
+    <t>2200090001-FINANCE DEPARTMENT</t>
+  </si>
+  <si>
+    <t>2300100000-Swine Operations Common</t>
+  </si>
+  <si>
+    <t>2300200000-Slaughter House</t>
+  </si>
+  <si>
+    <t>2300300000-Landscaping</t>
+  </si>
+  <si>
+    <t>2300400000-Other Livestocks Common</t>
+  </si>
+  <si>
+    <t>2300400100-Cattle- Beef Type</t>
+  </si>
+  <si>
+    <t>2300400700-Equine</t>
+  </si>
+  <si>
+    <t>2300500000-Marapangi Operations Common</t>
+  </si>
+  <si>
+    <t>2300500100-Malayan Catering</t>
+  </si>
+  <si>
+    <t>2300500200-Diversified Crops</t>
+  </si>
+  <si>
+    <t>2300990001-Finance Department</t>
+  </si>
+  <si>
+    <t>2300990002-Materials and Supply Department</t>
+  </si>
+  <si>
+    <t>2300990003-Administration</t>
+  </si>
+  <si>
     <t>5000000000 - DLI CORPORATE</t>
   </si>
   <si>
@@ -263,6 +425,9 @@
     <t>5000200000 - DBLCI COMMON</t>
   </si>
   <si>
+    <t>5000200100-DBLCI- LANANG APLAYA</t>
+  </si>
+  <si>
     <t>5600000000 - ANFLOCON CORPORATE</t>
   </si>
   <si>
@@ -287,7 +452,19 @@
     <t>6500000000</t>
   </si>
   <si>
-    <t>TEST2</t>
+    <t>7000000000-Pitrade Corporate</t>
+  </si>
+  <si>
+    <t>7000100000-Shopfast- Central</t>
+  </si>
+  <si>
+    <t>7000200000-Kitchenette</t>
+  </si>
+  <si>
+    <t>7000300000-Bakery</t>
+  </si>
+  <si>
+    <t>7000900001-Finance</t>
   </si>
 </sst>
 </file>
@@ -666,696 +843,696 @@
     </row>
   </sheetData>
   <dataValidations count="198">
-    <dataValidation type="list" sqref="A2" xr:uid="{1C113A17-7846-4A94-A243-DAD204F25EBC}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B2" xr:uid="{FBE2162D-14CF-4A35-A819-D8263AC6D0B3}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A3" xr:uid="{078C28A7-FCD7-41DC-B7DD-DEDAABFCC1A6}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B3" xr:uid="{5168CE6F-775F-4345-BD8A-FA0D080B236E}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A4" xr:uid="{9A64FF21-DDC4-4B45-A725-C11423C105F6}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B4" xr:uid="{BD60021C-FE92-4B9F-BB30-346BF3901F61}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A5" xr:uid="{BF61B335-1BF1-4332-AF52-916814545F4A}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B5" xr:uid="{2791C35C-2E62-476E-A282-DFE48133B255}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A6" xr:uid="{89C77411-990B-4993-8B1F-1EB59DF28FC4}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B6" xr:uid="{E13C2B1C-C5CA-4CC4-8B07-FCE76A8F71EE}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A7" xr:uid="{76CDD901-681A-4250-AB40-EA0E80DB3BC3}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B7" xr:uid="{D5304B55-FABB-4DC3-984D-E41214003FC0}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A8" xr:uid="{2D58BCD5-3531-4193-BD0A-379E528D6879}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B8" xr:uid="{CE9A8919-0C27-49BF-AAB9-603170EEAFE7}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A9" xr:uid="{ACB6A4F6-D416-4101-B24B-2FA301ED1807}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B9" xr:uid="{C73D0C6D-62A5-46DF-83BC-226850959118}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A10" xr:uid="{81126BDD-8C99-479C-8327-5E59C8D28164}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B10" xr:uid="{1031BD06-BFFF-46C8-9250-A2A0A8B6EBB8}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A11" xr:uid="{CF78D77C-C9E7-4201-807B-BE0D350E8823}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B11" xr:uid="{3C76F126-137A-4606-9D29-65E4996B3A25}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A12" xr:uid="{5EF20C95-E52D-4AD0-8B0F-B7B570913705}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B12" xr:uid="{AA3C2568-8CC6-45F2-BA1E-0109AEBE7820}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A13" xr:uid="{82B995CB-DF61-4B57-93EB-BF9CE43988B6}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B13" xr:uid="{7B6B6935-6CB3-4041-A46E-2581DDF6F4FF}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A14" xr:uid="{005D19BF-870D-45D8-8FA5-A1667FE6CE01}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B14" xr:uid="{F7AA9C8B-D4A9-4D5C-9ADE-957D9835A45C}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A15" xr:uid="{2525B137-3C31-47F9-8B72-B31AF0675F33}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B15" xr:uid="{818FFD35-5674-4DB8-9E83-2737274C8EC4}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A16" xr:uid="{BADB6A9C-9BC8-4CD9-98AE-196494FD74D1}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B16" xr:uid="{5036014B-6326-44DB-A73E-A0D21606FDCF}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A17" xr:uid="{FB98751B-0EB8-4F8E-A74A-DFD689A9EE95}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B17" xr:uid="{6DE1D3A4-24DC-4400-9D36-95B65E271564}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A18" xr:uid="{2AFD1823-6EB7-4B98-BF93-851BCEB08DB2}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B18" xr:uid="{34A64068-4222-4B00-A6D7-6F58C8196C94}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A19" xr:uid="{89E529A7-A3CE-41C1-9229-4796CEF6C523}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B19" xr:uid="{B06EDED9-717A-46EB-8A1F-B06D5B61C431}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A20" xr:uid="{1D92F6C5-EE02-44C2-83C5-1B26CB3923C9}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B20" xr:uid="{4124A055-0EAF-45C8-A289-D04002B94FCB}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A21" xr:uid="{6472D914-90F4-42FA-8BC4-5ADCE0B2DE8C}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B21" xr:uid="{CA35E4CB-4F23-4984-B3A2-276AD8EDF0C6}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A22" xr:uid="{A1F3DCFC-6413-446C-9F87-A55195F62129}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B22" xr:uid="{6D835514-F14B-4546-8B20-0451A8C0C4E5}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A23" xr:uid="{7E3C5B63-0BC5-433E-9573-5E8554AA7480}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B23" xr:uid="{6D574923-9039-4717-BBF2-FF3717BC1216}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A24" xr:uid="{2BD45914-E13A-4A89-8D3C-9BEFA968CEF8}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B24" xr:uid="{FE97C7BD-DC14-4C28-9E74-DAA183F58134}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A25" xr:uid="{022BECB1-5D0C-4E9A-9EB6-0CD0E7185C7C}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B25" xr:uid="{0CC94367-6EE0-4342-AEB8-D0C80B845E8B}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A26" xr:uid="{1EF6F842-3D97-45E5-93D1-0DEBBC6067B6}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B26" xr:uid="{2BBC29BD-E58C-480B-BF8C-5E0967F04BD7}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A27" xr:uid="{79CC1B08-4FA1-4FBF-9672-A3AF83FDD148}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B27" xr:uid="{BA23309D-1B9E-409F-A3C8-08AEF115E757}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A28" xr:uid="{021E0D56-6828-412A-81BD-87093A61DE20}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B28" xr:uid="{D87AF705-45F0-4CBE-BC41-C4AB30D480AB}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A29" xr:uid="{0E08E725-5791-439C-950D-4A0C00EC3DB5}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B29" xr:uid="{E644AAD4-68AC-4CB4-80C3-505558610E9C}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A30" xr:uid="{E815FC07-EC7D-46D9-9855-55A507F3EC47}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B30" xr:uid="{00B8FA07-6171-4EC7-B952-D0745C5BCC08}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A31" xr:uid="{DA464B7A-660A-414A-BD98-B638AAE469E1}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B31" xr:uid="{0521FF10-5BA0-427B-BD14-C8F6F272B9AB}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A32" xr:uid="{391CB421-848D-46FD-93B6-0CBFBCB57095}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B32" xr:uid="{DEF7F3C7-89F3-446F-9528-092097AF7ECF}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A33" xr:uid="{0E240DD1-0211-4BEB-A92B-5A9FA433FC76}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B33" xr:uid="{178DC0D8-5317-41BC-9344-5DD8631E081F}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A34" xr:uid="{51D6AD12-8E74-4E0A-B1E7-DA56843B8DF9}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B34" xr:uid="{2DA43927-9E3C-4159-A854-BAFB239AFFC3}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A35" xr:uid="{FBDB5788-2469-49B7-955C-08FBC5BF6779}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B35" xr:uid="{290DB37E-BF57-4349-A149-C9ED4B36BC31}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A36" xr:uid="{44865FC9-2D58-4840-9FBF-373C1BE8CD70}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B36" xr:uid="{CAF83DBC-930D-40E3-930B-E5C988879F7E}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A37" xr:uid="{0A57C9AB-046C-46D5-B6D1-E277E755FC35}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B37" xr:uid="{0EE7BD7C-F681-421E-B424-25105A331B77}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A38" xr:uid="{AE43CB14-0A94-4A0E-9F2D-2DEEE0AC160A}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B38" xr:uid="{3B1932B6-00E4-4A37-8CAB-807B34A41C36}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A39" xr:uid="{A3A3DA65-07C5-47DB-8075-AF0E5A160658}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B39" xr:uid="{5BA90167-8069-4583-A2C5-BB4C27F18E93}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A40" xr:uid="{E1D5F20D-7B9F-4B13-86B0-0920B5EF6851}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B40" xr:uid="{D49F0100-811B-42D4-8981-5F1994CB1D97}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A41" xr:uid="{46606B93-6889-4D4A-91D7-2ABCE86538EE}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B41" xr:uid="{E7832007-4D85-4615-804A-E43772A17D77}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A42" xr:uid="{64DCC4D8-C9A1-4FE4-A3F9-415AF8346555}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B42" xr:uid="{D7DD2CA1-623F-4A25-A459-2C0EF4F06491}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A43" xr:uid="{B658555A-A177-4BC4-8E84-2CD5AAA941E3}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B43" xr:uid="{F236E8FE-9470-406A-893A-540B12FBF038}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A44" xr:uid="{7A0D6C5D-2FC5-43A1-A1B1-4B5342C08F36}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B44" xr:uid="{A77B606B-21E3-4CD7-8452-824B677C6265}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A45" xr:uid="{D19F5BC9-E51B-4CD6-BE91-29BC6388BA76}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B45" xr:uid="{72FF70FE-1D96-4097-8FCD-7027896EDCAA}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A46" xr:uid="{FED6B623-EDA5-4A55-B7DB-02B342D56AC0}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B46" xr:uid="{C1ED29E5-E615-4D21-8988-DD3C2C3C9EAA}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A47" xr:uid="{E1773638-528F-46C4-8CAE-BB49FBD10A68}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B47" xr:uid="{EDE67E9E-B6FA-4DC2-A2C9-B2DC40A6BDFE}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A48" xr:uid="{7FEC562A-7AC8-448C-8F08-953C40C39029}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B48" xr:uid="{AF8418A6-FF61-405D-BA35-E5C45076E7E8}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A49" xr:uid="{9C3D04D1-A0B8-4D35-9526-7D2405666A69}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B49" xr:uid="{520BDA9D-BED5-4F91-8782-805BC65CEEA9}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A50" xr:uid="{C7241F7F-3F36-4C6C-A317-43157ACE2DE9}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B50" xr:uid="{CE58898A-AE68-4540-8C1E-673602E10883}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A51" xr:uid="{F79C1CCF-4D2B-464A-91B2-193E2876F1E3}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B51" xr:uid="{811E70FE-58E0-4B19-A502-C10FC7FA695E}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A52" xr:uid="{FB29C677-6DD6-4128-B334-520FA0BE74BC}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B52" xr:uid="{953638BF-7B6E-4A8A-8A20-6C3AC539C353}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A53" xr:uid="{6742D449-77B6-4034-994E-46A9F8AD5561}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B53" xr:uid="{F5BFA42E-1AD5-4A78-ADE6-63DD197FFCAF}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A54" xr:uid="{2EAA5AD2-049C-41A4-9E6E-3A553908C1B7}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B54" xr:uid="{3C246448-9F25-4611-9D2C-2DA76E652E4E}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A55" xr:uid="{D2198557-E69C-4598-850E-93861879E7CF}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B55" xr:uid="{704C957F-C50A-4550-B777-CAA790A1FD8B}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A56" xr:uid="{B0EDED69-E319-456C-8E3F-BA37534127A3}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B56" xr:uid="{9BE46E6A-6CC2-4B95-AC70-BCD564518918}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A57" xr:uid="{B9C7C5BD-516E-46E9-BA5E-D9400713009C}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B57" xr:uid="{FECCA9EE-0AA2-41ED-98BE-4B35B284D75F}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A58" xr:uid="{70B54FCA-DCFF-4458-8928-2AEB7B2DFCEE}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B58" xr:uid="{51096F7F-8B3B-4EE4-89BD-3B6CDCE00CC7}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A59" xr:uid="{44CF025E-F8AF-459C-B3B8-5A032EB7AD63}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B59" xr:uid="{18F5AA8A-82C7-4A14-A807-F2787140757C}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A60" xr:uid="{55637EB1-D6E1-425B-AAE4-6B2D4A506E28}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B60" xr:uid="{4797343E-3A20-4FCA-BF08-8F3C7A3730E9}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A61" xr:uid="{54AE74F3-56FE-4163-8929-6C0E952096B0}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B61" xr:uid="{DF500871-580A-4997-8357-55603A6DE6BD}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A62" xr:uid="{27A134B7-AD5F-4B5F-87DE-71B723FC3A90}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B62" xr:uid="{41DB8D86-A71C-4F81-8765-E1697AEAD059}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A63" xr:uid="{9AC73E5C-B2B6-4A01-A740-FB87ABEAA90E}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B63" xr:uid="{17F4512B-0ACC-4655-8E55-43A8D7A3EB9B}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A64" xr:uid="{8B19704C-CDBE-4315-B9EC-2A0FEEBFB432}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B64" xr:uid="{CE1CA2D4-983A-4F89-B3E2-6274227EAB44}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A65" xr:uid="{86FB5296-598F-4F8C-850E-2DF488A440E1}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B65" xr:uid="{E48C91EB-892F-4F4C-9586-0C8CD2E8B2C6}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A66" xr:uid="{C311BB4E-8A6D-48D8-A4E5-4F9B7A9EA4B8}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B66" xr:uid="{C942F049-C4EB-4606-9150-79EE140CAD08}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A67" xr:uid="{B84D304B-9E7F-421B-BC50-1CCEFA3662C9}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B67" xr:uid="{A76C7DFB-2267-42F6-959C-CD1AC7CB45ED}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A68" xr:uid="{05FEECE6-CB6E-461D-AD3E-AA9F1852379C}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B68" xr:uid="{4BED9599-915B-4BF7-A5E0-67BC6AE0CD33}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A69" xr:uid="{78DFF0AF-A395-4ACC-9060-776E9A0EDE16}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B69" xr:uid="{FAAD0EF0-CE61-4E52-9BE5-1B51356BB382}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A70" xr:uid="{5D6D6551-A02A-4A05-9F28-8962D7B7E767}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B70" xr:uid="{0ED38540-361B-4AB2-9E0A-460D9D5384FE}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A71" xr:uid="{E907090D-775A-425D-8F5D-721F14722B5E}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B71" xr:uid="{8F6EBDFF-8F18-45F7-BBB1-A1FDFB3B9021}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A72" xr:uid="{315E1632-3DAA-419B-972B-656F17C14E44}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B72" xr:uid="{4F2449DB-2A75-4B26-80B0-17309279AD04}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A73" xr:uid="{365C0EDE-9B17-46B9-A556-9881610ACF91}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B73" xr:uid="{7FC4B9F9-AA3B-414A-9471-FD7505B44D40}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A74" xr:uid="{9F97A7E3-9AA3-4307-BAC9-908E6C399E25}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B74" xr:uid="{41F2A8EA-96AD-4C9C-8ACC-8AC71CC70C1B}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A75" xr:uid="{C1AD919B-CE35-4D0F-863E-4BF94E4C999B}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B75" xr:uid="{0A65E0EF-7BB1-43AF-BD0A-8920982E91EE}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A76" xr:uid="{8FB3A3F5-4098-48B5-A109-BABA9E9EF551}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B76" xr:uid="{18BBA091-14B9-491E-803D-6C6D86314B50}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A77" xr:uid="{34A4AFD5-822C-494A-9E87-118DD3611BFC}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B77" xr:uid="{D7220B16-B7F4-42D0-B2B3-0F69EF2F3AC0}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A78" xr:uid="{0EF8203A-2E7B-495F-9021-E503C0B1FB44}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B78" xr:uid="{8D90684F-8040-44BD-92C0-CB2877D4B1D8}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A79" xr:uid="{2CE78276-01AC-46A8-896A-5625ABC6AAFF}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B79" xr:uid="{27257407-1F96-458A-8CDF-8963E65A3C7E}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A80" xr:uid="{2AD9E713-796F-4B89-B1E2-B0049252A0A5}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B80" xr:uid="{43DB3CC8-EDBE-4B0C-B0C1-55E9581FE311}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A81" xr:uid="{E5D9AD2B-2A3F-429C-BDCC-5B7308D51372}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B81" xr:uid="{B6651E20-B168-4229-A8F7-3889701780DF}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A82" xr:uid="{98AB3873-4B2C-4B70-851C-BF77739FDD16}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B82" xr:uid="{45370882-8D1D-40A9-BC1E-74ECA9155807}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A83" xr:uid="{5A48AA42-E4B3-4731-A737-C52C1FF1B53D}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B83" xr:uid="{1A9E97AB-50E9-4974-A9E0-2C79E7F68639}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A84" xr:uid="{BBDF7594-4C46-473B-BF54-8EF2CA9D795F}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B84" xr:uid="{AC00FD89-ABAA-4B2B-B63D-4AF698355B3B}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A85" xr:uid="{10E55BA7-8B78-4A98-9FA4-D6EBF6AF57C5}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B85" xr:uid="{FB092D8D-A163-44CF-907B-0F877A313820}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A86" xr:uid="{E41A9F70-372A-4F27-A944-6CD584319189}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B86" xr:uid="{CAC604FF-31FE-4347-9840-5DBF3171821F}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A87" xr:uid="{39F0ADCF-3F40-45C9-9F29-EEC7230643D0}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B87" xr:uid="{543E0483-DB5C-4249-A33B-DDCB708EEEA4}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A88" xr:uid="{07F830AB-D4C8-4AAE-A6EB-A68595F8EA2C}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B88" xr:uid="{CF888C36-80A9-47DB-B434-81D2605CAC72}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A89" xr:uid="{343A550D-C617-4B69-908A-719399252020}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B89" xr:uid="{E955E72E-EA2F-4916-AEF7-F79961F13F3E}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A90" xr:uid="{9B8575F0-CAA2-411E-8C6F-9955723AB6AE}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B90" xr:uid="{4294D9A4-6B6A-49F3-831E-109AAA86119B}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A91" xr:uid="{B96705F2-8A64-4872-8FB3-7792DD39B588}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B91" xr:uid="{7FDFC31C-2B58-44DD-8343-F299D5198491}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A92" xr:uid="{84ED90AB-54E0-43B9-8C4E-379144BDE9DE}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B92" xr:uid="{57417E02-9B0C-4D28-A7EA-AC7365B2C83F}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A93" xr:uid="{B5282DD0-4D46-4536-987D-FB092A28C817}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B93" xr:uid="{B4394CFC-8085-478B-B2F0-30A2CD492029}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A94" xr:uid="{B7D67CF7-8AA1-4B8A-B142-29B6A8FA2375}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B94" xr:uid="{C26995BD-147F-4F81-A48D-07CEF8986684}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A95" xr:uid="{E857D69E-4A5A-4316-98C4-F7E6160F0198}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B95" xr:uid="{BBAD1421-29B3-45B3-853E-E7532C6A4902}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A96" xr:uid="{862C67F6-E43B-43AB-9312-B638A4EB4861}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B96" xr:uid="{5F3C34BC-C946-4B3E-96A0-EB37CF210D24}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A97" xr:uid="{A717785B-378C-4BF3-9745-66515A7E6042}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B97" xr:uid="{112A59E1-E93B-45AB-80D8-657E0B78AF16}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A98" xr:uid="{19F3B912-870D-48FC-9F9A-8226C2B754B8}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B98" xr:uid="{7D181ECF-815C-4B46-9C7A-6AE90D503CCD}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A99" xr:uid="{45D449B0-FE14-4D29-ACD3-CEE0A5AD5A44}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B99" xr:uid="{B66AD617-950E-4695-8433-9E36B4397B3F}">
-      <formula1>0</formula1>
-      <formula2>999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" sqref="A100" xr:uid="{9EC2D886-3331-4880-B768-4A63F3923700}">
-      <formula1>CostCenterList</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B100" xr:uid="{08BB8EBF-CDF6-4D95-8C46-ABFEE3859637}">
+    <dataValidation type="list" sqref="A2" xr:uid="{ED6A4802-DB02-44B7-9351-F9F9CA29E9A7}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B2" xr:uid="{6ABB76F0-284E-4BA4-8623-ACB13C367CE5}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A3" xr:uid="{A0FBBDD8-43BA-4A3B-BAA1-DED901E988A0}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B3" xr:uid="{33E762DF-4BBF-4432-B436-B0DD98B27D41}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A4" xr:uid="{86F4888C-0F5B-4526-B4F4-EE3AA4703499}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B4" xr:uid="{4E65E72D-968B-4D7D-A0DC-DA2AD480A810}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A5" xr:uid="{0711842D-E0AE-4812-B8E9-E050EA30337D}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B5" xr:uid="{038D07CA-2717-465F-A4B1-926FE34EA5BF}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A6" xr:uid="{D13EEE33-9654-4F17-9E0E-DCCE4BFF651C}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B6" xr:uid="{73970B47-2A7E-401F-811D-5B0E55D12025}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A7" xr:uid="{54268496-EC5E-4AF9-8799-E8EBAA8C24BF}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B7" xr:uid="{30AA457F-BB4D-4D3B-A495-EEDE429D4F5C}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A8" xr:uid="{7002E62F-B3B8-4074-9C9D-CD77BC3F0225}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B8" xr:uid="{1FC3D671-81F3-4F51-BFBC-8066D54F1A5E}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A9" xr:uid="{18578F29-B4EE-4180-A782-47DB63D226C0}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B9" xr:uid="{15491DA6-04A8-4433-BCD0-0A0D21E13FC8}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A10" xr:uid="{0836847C-9580-45CD-B798-4482CB1F26A2}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B10" xr:uid="{B972167C-A0B1-49D3-BF10-E0062954D24B}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A11" xr:uid="{9488A87D-DED4-4526-974C-9171F06223E6}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B11" xr:uid="{9F3000AE-B847-4D79-BC71-D56E440F6559}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A12" xr:uid="{33F7C8DF-0A6B-4BF0-9E84-50DB61D38586}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B12" xr:uid="{6E365B1A-DE16-412A-A137-702DEADD6D61}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A13" xr:uid="{CF7C8C8A-E3D7-4207-9720-3534CD450445}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B13" xr:uid="{36079772-F103-47D1-86F4-35D0C9A91DB7}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A14" xr:uid="{493EC267-3D5F-4F3E-9C07-4D2247F1C4F7}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B14" xr:uid="{5B9DC5B0-BD7A-46D3-BED5-A905BC30D6E5}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A15" xr:uid="{E63C5122-0A00-43DC-BFCD-F0172358551A}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B15" xr:uid="{CDE5E1E9-C3A5-4E2B-89FC-0315DFDAA705}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A16" xr:uid="{7D6D96D3-1FD4-4390-81ED-368FF99745B9}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B16" xr:uid="{972FD44C-9A2C-4336-B938-5E4FF460B408}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A17" xr:uid="{7C0A3389-35A8-438E-A3E3-62063188C6D3}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B17" xr:uid="{2A4A6255-C180-4044-B71D-F39EBC6C0CBF}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A18" xr:uid="{8995419D-3C2F-4873-A941-402BAD1F5A80}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B18" xr:uid="{6FCDD578-C721-47E8-92B0-3B7B5EF84CC5}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A19" xr:uid="{DC9F5555-EA9C-4D3C-B0FB-960280BEADF9}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B19" xr:uid="{93B8FD1F-C04F-458C-BB24-C4097DB8E5E3}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A20" xr:uid="{1E5CE5D2-3DC5-4ED1-B2FE-8E62AAF9347F}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B20" xr:uid="{B10FE8F4-0D12-4EC0-A7C5-7C298E7DB124}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A21" xr:uid="{40FFAF26-B652-4A47-BB39-FFE4635512A0}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B21" xr:uid="{48BE5345-9053-4E35-9462-06697B2C5D2F}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A22" xr:uid="{46D35138-64E5-4291-ACE0-CFFB9B051ABA}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B22" xr:uid="{DB488BF3-16C0-4783-8E25-DA0A1A12733D}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A23" xr:uid="{5ABA18FC-5D89-4562-96E8-AF38E45B1543}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B23" xr:uid="{2C209527-3BF6-480C-80FD-BB895648EBCE}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A24" xr:uid="{D23FB80E-85C6-4739-9DC9-CBF287FB8F4B}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B24" xr:uid="{8A3CFAAC-3469-4BDE-887D-F2CC95A57961}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A25" xr:uid="{EE8B65C6-6794-4B4E-AE68-82774FC35D01}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B25" xr:uid="{FBC5DF60-B3D8-4A41-BE67-3DAB79B0AD7A}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A26" xr:uid="{B6DC41AD-47DE-4898-A898-A22D82C9AC04}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B26" xr:uid="{52CE8E66-1655-4F01-81F3-837AAFBD5825}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A27" xr:uid="{1B5BC9FD-2BD1-4801-938B-D75645B2B80C}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B27" xr:uid="{BB44A085-E4F9-430B-8434-A054E6061571}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A28" xr:uid="{470F748D-90E4-4C1B-A8A4-F8E42C88D2B8}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B28" xr:uid="{9DC942E9-3737-4329-80B0-41A0BD3ECA13}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A29" xr:uid="{8802559C-0514-401A-9AEF-C559BADA254D}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B29" xr:uid="{5788E395-F581-4901-AE6C-861C232E5581}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A30" xr:uid="{BDB147DF-97C5-4946-A99C-682D809F04A9}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B30" xr:uid="{C5651222-31B8-49B4-98DA-34136BF3659E}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A31" xr:uid="{35485329-FE03-44CB-A806-45D0EF4A4528}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B31" xr:uid="{E971A243-E1EA-41C3-B688-2CFE12F8CFB4}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A32" xr:uid="{E9A416A4-53D0-4072-B41B-5660FFFCB2BF}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B32" xr:uid="{E94B7A62-42AD-4E12-B4E6-DADC02A0AE1D}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A33" xr:uid="{E79EA769-D99C-4B37-90EA-0A4F0C944EF7}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B33" xr:uid="{57D545E5-4333-41BA-BDA2-0B7CE4F7C88E}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A34" xr:uid="{23E2C129-49C3-49E2-AEE2-3B315468D19C}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B34" xr:uid="{061409F9-D3E7-4459-A38B-C40DF4440472}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A35" xr:uid="{AB563CA7-1B0F-45C2-BEAF-B4771FEFFD34}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B35" xr:uid="{4DBB5093-FF95-4C6B-8BE2-B79299D728CE}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A36" xr:uid="{25526F50-07A2-4082-ACA2-8334AD798527}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B36" xr:uid="{44D9303D-0A60-4BF8-9967-33501EBEAE93}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A37" xr:uid="{A3AAEBB6-7C9A-463E-8BDC-CA0DDE3504EF}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B37" xr:uid="{EE181C93-564C-406A-9387-E0DAEBB42B1E}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A38" xr:uid="{09D040A4-92EE-4EE0-ACF5-D914036A9D8C}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B38" xr:uid="{3F86B252-E141-497D-BB8F-A1DF9C28006E}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A39" xr:uid="{5690E9FB-DD69-4243-81A9-71E74F120882}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B39" xr:uid="{D9D3C7F7-0DE6-4191-B4DC-94B03691817D}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A40" xr:uid="{65CEE707-7943-4026-AC3A-44D9249F3D36}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B40" xr:uid="{4C89C0FF-5F57-4B22-80F2-2F27C514A2F1}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A41" xr:uid="{53C432FC-1D5E-40AC-BE38-D0166F3FDAB4}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B41" xr:uid="{4A224343-8166-4D91-9838-69BD306E644E}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A42" xr:uid="{8CF90717-D6B5-4BE1-BAB1-81C0B47926EB}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B42" xr:uid="{2A6BB4F5-B46E-425F-B503-5C62654DAA59}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A43" xr:uid="{492D0733-5CC0-4771-8FEC-922B97DA46A2}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B43" xr:uid="{D606A3A5-4F4C-44C9-9F70-AA48C8CB972A}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A44" xr:uid="{62148F40-0982-49D0-A515-5922A38FF48A}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B44" xr:uid="{38A0FFC8-D3C3-4943-AB37-7DC6DDD34674}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A45" xr:uid="{312C80C8-F6F3-4FD0-9CBD-D99B6320B457}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B45" xr:uid="{02C1CC26-C4A7-4F0B-968D-EA0E48A797BA}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A46" xr:uid="{7CFAC966-EBE5-4674-9FB0-572E38B2C211}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B46" xr:uid="{E35FB3A5-AC52-4135-9BBA-8D469834BF89}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A47" xr:uid="{51CF4DE6-5A5D-4006-8998-CA7C0CD812E5}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B47" xr:uid="{9A227688-F56B-4598-BAF9-0D5603B903D6}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A48" xr:uid="{15D81592-F069-465E-A7FD-9A0EEFCD0B8B}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B48" xr:uid="{CA88B7B8-45F5-4512-ADF6-DF481DCBDC71}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A49" xr:uid="{234B5B86-9C1F-4DC6-A946-5188C6B5A704}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B49" xr:uid="{E738D405-B314-41FE-BA92-0F4D11F5780D}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A50" xr:uid="{DF76B505-0F45-4DC8-B89B-DB0071DB93BF}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B50" xr:uid="{1651FC58-2B2C-41D4-BE7C-127014C68840}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A51" xr:uid="{50388CAF-CB34-4B48-8F94-9547CCDBBD16}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B51" xr:uid="{37D91EA4-6C14-4CB3-B4B7-FE2F2261A53A}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A52" xr:uid="{6F8EFEA6-B2B4-4484-BB05-584FB534D1F4}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B52" xr:uid="{71E70524-4432-4C51-80C9-ABB68965FD2B}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A53" xr:uid="{5D78808D-FBA9-4714-877D-FCD323E689AD}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B53" xr:uid="{DFEC479C-1EB9-4EB0-B540-2FACE8BC0880}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A54" xr:uid="{3C440C30-9E47-43FB-948F-018BA69B496A}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B54" xr:uid="{2CD78065-A560-4DC4-9DBD-5B2EC603A69C}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A55" xr:uid="{1416DD30-40B0-48CF-9017-F302C92BDF0D}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B55" xr:uid="{B328BC72-3DA2-43D4-8239-0B9B9CEEA865}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A56" xr:uid="{9C5F52E4-FE56-4ECB-B3BE-4FFB3E27CA85}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B56" xr:uid="{8B5166B2-B245-415A-888E-F814D20CE0BE}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A57" xr:uid="{12605912-FFAB-4245-B8BF-71AFBADF2A44}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B57" xr:uid="{08335EB6-2373-4AFB-B668-320AE6A991D4}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A58" xr:uid="{61A5CF27-E294-4BBB-ABEB-5CE82CDA057B}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B58" xr:uid="{8A3B5FAB-22CF-46C5-A1D6-AE25ED6D7C83}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A59" xr:uid="{8BF811B8-1DCD-47A7-8C41-E004F1BB6109}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B59" xr:uid="{EB936422-B2C9-48AD-9901-D570C72DFB86}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A60" xr:uid="{1873B806-5931-46BE-AC75-6BA7DF70DB33}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B60" xr:uid="{91204940-09A3-4764-B4FB-CBFE735ADDA2}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A61" xr:uid="{C4286A22-392A-4A48-AAA1-472BE77607F2}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B61" xr:uid="{2430C218-8584-49D6-B6EE-2DCB8A874BE5}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A62" xr:uid="{A27A9747-7CC4-4629-92F1-635FA9BF93E2}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B62" xr:uid="{98AD6FBD-F3C6-4D40-86B5-82B141C2030B}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A63" xr:uid="{1998F76B-27C1-4D26-99BD-6DA31B99CA03}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B63" xr:uid="{F11FDAE4-4318-4E74-A7C5-475640B71242}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A64" xr:uid="{2B78779F-AA3D-4991-B1CC-B3299D1ADBE6}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B64" xr:uid="{DCDC3EE2-018D-4D2C-B8C4-5890F14444C9}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A65" xr:uid="{A65E878F-1768-4966-933C-A12101EC3D6B}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B65" xr:uid="{201D599E-7B0B-4515-8EEE-29BE1695DEA8}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A66" xr:uid="{CA57D66C-59DC-42E9-B599-4C50FD08D0C6}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B66" xr:uid="{8A99DD9B-04A0-45CA-B525-68867BBAD004}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A67" xr:uid="{9675EBA5-1AE8-429F-A20D-35140C021C56}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B67" xr:uid="{D38B5961-8A48-411C-956D-D328D6DB02C6}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A68" xr:uid="{33BB4B49-2D3D-4272-B1CE-79F28E212DBB}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B68" xr:uid="{240F3E15-C64B-4B9E-A95D-8E000BE770D9}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A69" xr:uid="{72F4B101-509C-435C-803B-77CE323059B6}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B69" xr:uid="{3FADFB39-504B-4C2E-82BA-AC31C173854B}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A70" xr:uid="{41F01BC2-D84D-4774-B197-DEE8DFE3FBFC}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B70" xr:uid="{B88A7D7A-0BD9-4183-B809-D40B3299225C}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A71" xr:uid="{DCF028E6-2ABA-4456-9CDD-88A53968680D}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B71" xr:uid="{C6BF682A-3DFF-47AB-B6B9-E1D91C85D57F}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A72" xr:uid="{E92B6D50-64FC-45EA-A436-F3D02EDADB74}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B72" xr:uid="{C498A91E-86A7-4858-8E15-30E16C7F5B90}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A73" xr:uid="{01BBD85B-5365-4CE8-87C3-5C5E39A47625}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B73" xr:uid="{92870D6F-108E-4CAA-8D12-4864894C9A81}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A74" xr:uid="{50F06D02-F15C-48A4-9303-9A1A6FEE09C3}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B74" xr:uid="{76AF6370-EB15-4170-8226-F9BD2D52C5E8}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A75" xr:uid="{680B9B07-4CD8-49B4-98C3-CD3A077A5DFD}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B75" xr:uid="{88AA07D4-7778-499F-B35A-D9DFE5A6733B}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A76" xr:uid="{AD6DDD2E-5234-4359-90D6-F15234B094D0}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B76" xr:uid="{A801B495-EEEF-4117-85CC-A8D0CC6FCC0D}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A77" xr:uid="{0E2BBF68-9EAE-4DFD-95CA-4598B7445DDB}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B77" xr:uid="{E36044A9-7683-4515-B30F-970A911D7FF2}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A78" xr:uid="{915893F7-6598-4380-A0FE-3EE2966176BE}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B78" xr:uid="{4102C4FA-9286-403A-83C8-95821A1AC00C}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A79" xr:uid="{9D3A1ACE-128D-4D4E-A307-29FDAA2163CC}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B79" xr:uid="{F0E98C41-D72E-41A3-9E01-01F8737A4787}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A80" xr:uid="{ED767B6D-B624-4B94-A724-0057159AD8DF}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B80" xr:uid="{724AF6D4-4087-4CF4-810C-AFA5A4BB155F}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A81" xr:uid="{C527BDBE-A31A-486E-AB06-711C34FE8FAC}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B81" xr:uid="{458232E4-ACE7-4901-B9FB-4232FF9A5C27}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A82" xr:uid="{C0A832F8-72AD-4F8C-8373-F106EE90143F}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B82" xr:uid="{9478B778-21ED-4E25-A420-1C8829FD6E0D}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A83" xr:uid="{8B871492-EA34-4870-94E5-88188FC4D1E7}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B83" xr:uid="{158BCD3E-4D96-4582-9BDB-DE96726DBAF7}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A84" xr:uid="{7E887926-DBDE-47B7-A4B8-52D1C5A9825A}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B84" xr:uid="{2C0BB826-8244-427F-AF02-438782657B1E}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A85" xr:uid="{9C1FC279-6239-4164-A68D-9F441A13DE59}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B85" xr:uid="{BC376EBA-3F75-4E8C-A9BE-5D11989EE795}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A86" xr:uid="{C5793DF3-0FEB-4DE5-8398-B46009F15598}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B86" xr:uid="{FDFE4419-9ECA-4903-839D-4EB3244292E8}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A87" xr:uid="{858B6C91-FCA9-4D65-929B-BE5430AFA3F6}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B87" xr:uid="{7FE8C931-0415-41A0-9E13-F00FEA7C88A4}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A88" xr:uid="{467D9119-8B2D-459F-9316-A81902ED83AF}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B88" xr:uid="{E7432498-A78C-4EE4-943D-BFD5F62062AB}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A89" xr:uid="{4D875A36-F260-41A1-8CC6-99A4F155C306}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B89" xr:uid="{85691899-E085-4885-A51E-925D11681983}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A90" xr:uid="{21828AD0-20BF-4D87-8E2A-8109638720C0}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B90" xr:uid="{C9AD75E4-E0B4-4EFC-B045-92FF51D9291F}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A91" xr:uid="{E30C5F28-68AE-438C-93E8-24FDE2A0A9C7}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B91" xr:uid="{9A80F540-DED2-4EB2-90E5-264FB6D64C62}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A92" xr:uid="{A5305693-1BCD-49E7-9697-8C86FE5F1E39}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B92" xr:uid="{2A59029A-3C50-4A77-846A-67CF63612E28}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A93" xr:uid="{B8CB14F1-B5C3-4BA2-BA36-7898FD74380C}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B93" xr:uid="{DC6D6076-1B70-44F1-BC4A-860B8B8D3824}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A94" xr:uid="{2AEF8735-E2B1-4A4E-89F9-8C329C03191B}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B94" xr:uid="{2DEED589-92F0-4B11-B9E2-1A83D841C1B2}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A95" xr:uid="{85257919-D19B-48D9-A987-9E9D6E69F715}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B95" xr:uid="{C2E619D9-7FD1-4F00-99E3-F8714B2004DC}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A96" xr:uid="{1A3EAE7E-DCDA-4396-85D1-91B10EC5137C}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B96" xr:uid="{B06D8247-FFE4-4DD7-8761-7D44B60EC75E}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A97" xr:uid="{C71E1A30-4B0D-4122-AAD0-072FF46417E5}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B97" xr:uid="{1DC12E06-FA9F-48FE-B136-1B3D37DF49E2}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A98" xr:uid="{FC954F30-C9F5-498F-B254-4DD1E5CD6351}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B98" xr:uid="{E06C0A60-4007-4644-B3D3-9350A3C236F3}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A99" xr:uid="{34BA16E1-02B3-4708-971F-8F953F28B435}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B99" xr:uid="{2F8F3D1C-034F-435C-924C-977A6BF5EA49}">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" sqref="A100" xr:uid="{9C844E42-0B87-483F-8F78-AA207C02BFE6}">
+      <formula1>CostCenterList</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Invalid Input" error="Please enter a valid number (decimal or integer)." sqref="B100" xr:uid="{5D9523E5-5970-4A09-B169-9BA9FAC26956}">
       <formula1>0</formula1>
       <formula2>999999</formula2>
     </dataValidation>
@@ -1366,7 +1543,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A79"/>
+  <dimension ref="A1:A139"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1767,6 +1944,306 @@
         <v>81</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
